--- a/UDM_1.0.xlsx
+++ b/UDM_1.0.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://helindata.sharepoint.com/sites/PRJ/Shared Documents/Helin/02 Manuals and Instructions/SGM/Datasheets &amp; manuals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="518" documentId="8_{0F0622C9-6C18-4B13-A2D4-4314A9545AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{412BEC4C-8BC7-4C5F-81D0-E7D01C6B9BE5}"/>
+  <xr:revisionPtr revIDLastSave="525" documentId="8_{0F0622C9-6C18-4B13-A2D4-4314A9545AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20110B44-FF97-426C-ABB8-6E05F475E21F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5269959B-9FAD-4EAF-8165-D4B48166F4A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5269959B-9FAD-4EAF-8165-D4B48166F4A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Asset" sheetId="10" r:id="rId1"/>
-    <sheet name="Models" sheetId="11" r:id="rId2"/>
+    <sheet name="Asset Naming" sheetId="10" r:id="rId1"/>
+    <sheet name="Sunspec Models" sheetId="11" r:id="rId2"/>
     <sheet name="101" sheetId="12" r:id="rId3"/>
     <sheet name="102" sheetId="13" r:id="rId4"/>
     <sheet name="103" sheetId="14" r:id="rId5"/>
@@ -98,9 +98,6 @@
     <t>EVSE</t>
   </si>
   <si>
-    <t>Electric Vechckle Charger Socket</t>
-  </si>
-  <si>
     <t>BESS</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
   </si>
   <si>
     <t>MEAS</t>
-  </si>
-  <si>
-    <t>Measurment</t>
   </si>
   <si>
     <t>RIO</t>
@@ -2079,6 +2073,12 @@
   </si>
   <si>
     <t>SCTL/DRBE090/PL01/SYS01/INVR_AB8783/TmpCab</t>
+  </si>
+  <si>
+    <t>Electric Vehicle Charger Socket</t>
+  </si>
+  <si>
+    <t>Measurement</t>
   </si>
 </sst>
 </file>
@@ -2640,7 +2640,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2650,6 +2649,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3027,9 +3027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CC508A-D9C1-4237-82D4-209740B29D0C}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3038,31 +3036,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="11"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3103,31 +3101,31 @@
         <v>12</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>13</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3140,7 +3138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5095354A-102A-4333-B48C-5773B471C985}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
@@ -3154,255 +3152,255 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -3415,8 +3413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306CB194-9084-4129-9211-699A5370A3C9}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
@@ -3429,640 +3427,640 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -4075,7 +4073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729F8FC5-92C2-4BEE-8A85-8B05FA21A353}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
@@ -4089,90 +4087,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -4185,7 +4183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759BC719-5DA1-4D01-A12E-025CEB6C2A90}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -4199,156 +4197,156 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -4361,7 +4359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAECA9E2-FB84-463E-AB5E-8BD6594B51F8}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
@@ -4375,651 +4373,651 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -5030,10 +5028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2855365-68B9-4196-AE7D-2A1944DA96BF}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A2:A13"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5041,64 +5039,64 @@
     <col min="1" max="1" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -5111,7 +5109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6A8972-8809-4FF2-81E5-8DDBA189AFDB}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
@@ -5124,509 +5122,509 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -5639,7 +5637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6EFDBF-0122-45E4-9BAB-46B64A8CC6D5}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
@@ -5653,255 +5651,255 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5914,7 +5912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00333C7-37AD-4AB7-A7F8-B6E518092C12}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="A12:C12"/>
     </sheetView>
@@ -5928,473 +5926,473 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6408,7 +6406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F70ADC2-DAF0-47A0-9A9F-1DDEDBE872BE}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
@@ -6422,211 +6420,211 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -6653,365 +6651,365 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -7024,7 +7022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9321806E-321F-4300-A10C-4C4F66CE9CBE}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
@@ -7038,255 +7036,255 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -7311,300 +7309,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -7614,15 +7612,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008CBD3EE378935B4196C9E0B096925552" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f438856228d429532b9f8779ab83b66e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6b423cda-a41e-476b-9617-bd89d2b89156" xmlns:ns3="377703c3-358e-46ec-a19f-205137b04220" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b159c01cd09b814491d314ca87e0521" ns2:_="" ns3:_="">
     <xsd:import namespace="6b423cda-a41e-476b-9617-bd89d2b89156"/>
@@ -7889,6 +7878,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7902,14 +7900,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEB29EF3-D1A8-4A0E-8A36-90F8C9F3CEDE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB9406B-D84E-4478-A68F-5BE07642FE4D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7924,6 +7914,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEB29EF3-D1A8-4A0E-8A36-90F8C9F3CEDE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
